--- a/data/grammar_2.xlsx
+++ b/data/grammar_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="XY6uwG62uqlBGz3ZAKXUAX5UzoHVo7Ucg8yuWm5ZfNyPwAQGpnzy2ABInZU2oO4g8RUkiNTbHc2zeclVrdRfkg==" workbookSaltValue="6QaEve4UIvjeqESlKczzzA==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="i47wSho0q5wHHm7MW7m7y2S3CbnG7uyQ+Cg/ltj8irRZwfmbSwv3/kXl7W4qGdajwYSGZRC0UkeUPIvydJEvoA==" workbookSaltValue="mfqTLU5dBkWnCcDjLe8+mw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -308,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My fat her _____________ a robot for me. (buy)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We tried hard, but we _____________ the game. (lose)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1101,6 +1097,10 @@
   </si>
   <si>
     <t>He has two shorts. One is pink, the (another, other) is blue.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My father _____________ a robot for me. (buy)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1555,25 +1555,25 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
         <v>127</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>128</v>
       </c>
-      <c r="H3" t="s">
-        <v>129</v>
-      </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1590,25 +1590,25 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
         <v>130</v>
       </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>131</v>
       </c>
-      <c r="H4" t="s">
-        <v>132</v>
-      </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1625,25 +1625,25 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" t="s">
         <v>133</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>134</v>
       </c>
-      <c r="H5" t="s">
-        <v>135</v>
-      </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1660,25 +1660,25 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
         <v>136</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
         <v>137</v>
       </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" t="s">
-        <v>138</v>
-      </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1695,25 +1695,25 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" t="s">
         <v>139</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>140</v>
       </c>
-      <c r="G7" t="s">
-        <v>141</v>
-      </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1730,25 +1730,25 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
         <v>142</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>143</v>
       </c>
-      <c r="H8" t="s">
-        <v>144</v>
-      </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1765,25 +1765,25 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" t="s">
         <v>145</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>146</v>
       </c>
-      <c r="H9" t="s">
-        <v>147</v>
-      </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1794,31 +1794,31 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
         <v>260</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>261</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>262</v>
       </c>
-      <c r="H10" t="s">
-        <v>263</v>
-      </c>
       <c r="I10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1835,25 +1835,25 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
         <v>149</v>
       </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>150</v>
       </c>
-      <c r="H11" t="s">
-        <v>151</v>
-      </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1870,25 +1870,25 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" t="s">
         <v>152</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>153</v>
       </c>
-      <c r="G12" t="s">
-        <v>154</v>
-      </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12">
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1905,25 +1905,25 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" t="s">
         <v>155</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>156</v>
       </c>
-      <c r="H13" t="s">
-        <v>157</v>
-      </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1940,25 +1940,25 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
         <v>158</v>
       </c>
-      <c r="F14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>159</v>
       </c>
-      <c r="H14" t="s">
-        <v>160</v>
-      </c>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1975,25 +1975,25 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
         <v>162</v>
       </c>
-      <c r="F15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" t="s">
-        <v>163</v>
-      </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15">
         <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2010,25 +2010,25 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" t="s">
         <v>164</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>165</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>166</v>
       </c>
-      <c r="H16" t="s">
-        <v>167</v>
-      </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2045,25 +2045,25 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" t="s">
         <v>168</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
         <v>169</v>
       </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" t="s">
-        <v>170</v>
-      </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2080,25 +2080,25 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
         <v>171</v>
       </c>
-      <c r="F18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>172</v>
       </c>
-      <c r="H18" t="s">
-        <v>173</v>
-      </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2115,25 +2115,25 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
         <v>174</v>
       </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>175</v>
       </c>
-      <c r="H19" t="s">
-        <v>176</v>
-      </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2185,10 +2185,10 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -2197,13 +2197,13 @@
         <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21">
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2220,10 +2220,10 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
         <v>122</v>
-      </c>
-      <c r="F22" t="s">
-        <v>123</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2232,13 +2232,13 @@
         <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2255,10 +2255,10 @@
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -2267,13 +2267,13 @@
         <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2284,16 +2284,16 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2302,13 +2302,13 @@
         <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J24">
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2319,16 +2319,16 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2337,13 +2337,13 @@
         <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2360,10 +2360,10 @@
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -2372,13 +2372,13 @@
         <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2395,25 +2395,25 @@
         <v>23</v>
       </c>
       <c r="E27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
         <v>177</v>
       </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>178</v>
       </c>
-      <c r="H27" t="s">
-        <v>179</v>
-      </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J27">
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2430,25 +2430,25 @@
         <v>23</v>
       </c>
       <c r="E28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" t="s">
         <v>181</v>
       </c>
-      <c r="F28" t="s">
-        <v>182</v>
-      </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J28">
         <v>4</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2465,25 +2465,25 @@
         <v>23</v>
       </c>
       <c r="E29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
         <v>183</v>
       </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>184</v>
       </c>
-      <c r="H29" t="s">
-        <v>185</v>
-      </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2500,25 +2500,25 @@
         <v>23</v>
       </c>
       <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" t="s">
         <v>186</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" t="s">
         <v>187</v>
       </c>
-      <c r="G30" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" t="s">
-        <v>188</v>
-      </c>
       <c r="I30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J30">
         <v>3</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2535,25 +2535,25 @@
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
         <v>189</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>190</v>
       </c>
-      <c r="H31" t="s">
-        <v>191</v>
-      </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2570,25 +2570,25 @@
         <v>23</v>
       </c>
       <c r="E32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" t="s">
         <v>192</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>193</v>
       </c>
-      <c r="G32" t="s">
-        <v>194</v>
-      </c>
       <c r="H32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32">
         <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2605,25 +2605,25 @@
         <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" t="s">
         <v>195</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>196</v>
       </c>
-      <c r="H33" t="s">
-        <v>197</v>
-      </c>
       <c r="I33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2640,25 +2640,25 @@
         <v>23</v>
       </c>
       <c r="E34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
         <v>198</v>
       </c>
-      <c r="F34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>199</v>
       </c>
-      <c r="H34" t="s">
-        <v>200</v>
-      </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J34">
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2675,25 +2675,25 @@
         <v>23</v>
       </c>
       <c r="E35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" t="s">
         <v>201</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>202</v>
       </c>
-      <c r="G35" t="s">
-        <v>203</v>
-      </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J35">
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2710,25 +2710,25 @@
         <v>23</v>
       </c>
       <c r="E36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" t="s">
         <v>204</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>205</v>
       </c>
-      <c r="G36" t="s">
-        <v>206</v>
-      </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J36">
         <v>4</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2745,25 +2745,25 @@
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" t="s">
         <v>207</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>208</v>
       </c>
-      <c r="H37" t="s">
-        <v>209</v>
-      </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2780,25 +2780,25 @@
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
+        <v>209</v>
+      </c>
+      <c r="G38" t="s">
         <v>210</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>211</v>
       </c>
-      <c r="H38" t="s">
-        <v>212</v>
-      </c>
       <c r="I38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2815,25 +2815,25 @@
         <v>23</v>
       </c>
       <c r="E39" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" t="s">
         <v>213</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>214</v>
       </c>
-      <c r="G39" t="s">
-        <v>215</v>
-      </c>
       <c r="H39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J39">
         <v>4</v>
       </c>
       <c r="K39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2850,25 +2850,25 @@
         <v>23</v>
       </c>
       <c r="E40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" t="s">
         <v>216</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" t="s">
         <v>217</v>
       </c>
-      <c r="G40" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" t="s">
-        <v>218</v>
-      </c>
       <c r="I40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J40">
         <v>3</v>
       </c>
       <c r="K40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2885,25 +2885,25 @@
         <v>23</v>
       </c>
       <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" t="s">
         <v>219</v>
       </c>
-      <c r="F41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>220</v>
       </c>
-      <c r="H41" t="s">
-        <v>221</v>
-      </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J41">
         <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2920,25 +2920,25 @@
         <v>23</v>
       </c>
       <c r="E42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" t="s">
         <v>222</v>
       </c>
-      <c r="F42" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>223</v>
       </c>
-      <c r="H42" t="s">
-        <v>224</v>
-      </c>
       <c r="I42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J42">
         <v>2</v>
       </c>
       <c r="K42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2955,25 +2955,25 @@
         <v>23</v>
       </c>
       <c r="E43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" t="s">
         <v>225</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" t="s">
         <v>226</v>
       </c>
-      <c r="G43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" t="s">
-        <v>227</v>
-      </c>
       <c r="I43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J43">
         <v>3</v>
       </c>
       <c r="K43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2984,31 +2984,31 @@
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" t="s">
         <v>228</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" t="s">
         <v>229</v>
       </c>
-      <c r="G44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" t="s">
-        <v>230</v>
-      </c>
       <c r="I44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J44">
         <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3019,31 +3019,31 @@
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
       </c>
       <c r="E45" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" t="s">
         <v>231</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>232</v>
       </c>
-      <c r="G45" t="s">
-        <v>233</v>
-      </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J45">
         <v>4</v>
       </c>
       <c r="K45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3054,31 +3054,31 @@
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
       </c>
       <c r="E46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" t="s">
         <v>234</v>
       </c>
-      <c r="F46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>235</v>
       </c>
-      <c r="H46" t="s">
-        <v>236</v>
-      </c>
       <c r="I46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J46">
         <v>2</v>
       </c>
       <c r="K46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3089,31 +3089,31 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G47" t="s">
         <v>237</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>238</v>
       </c>
-      <c r="H47" t="s">
-        <v>239</v>
-      </c>
       <c r="I47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3124,31 +3124,31 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
       </c>
       <c r="E48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" t="s">
         <v>240</v>
       </c>
-      <c r="F48" t="s">
-        <v>237</v>
-      </c>
-      <c r="G48" t="s">
-        <v>241</v>
-      </c>
       <c r="H48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J48">
         <v>4</v>
       </c>
       <c r="K48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3159,31 +3159,31 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
       </c>
       <c r="E49" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" t="s">
         <v>242</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" t="s">
         <v>243</v>
       </c>
-      <c r="G49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" t="s">
-        <v>244</v>
-      </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J49">
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3194,31 +3194,31 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" t="s">
         <v>245</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>246</v>
       </c>
-      <c r="G50" t="s">
-        <v>247</v>
-      </c>
       <c r="H50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J50">
         <v>4</v>
       </c>
       <c r="K50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3229,31 +3229,31 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
       </c>
       <c r="E51" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" t="s">
         <v>248</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" t="s">
         <v>249</v>
       </c>
-      <c r="G51" t="s">
-        <v>118</v>
-      </c>
-      <c r="H51" t="s">
-        <v>250</v>
-      </c>
       <c r="I51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J51">
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3268,7 +3268,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
